--- a/data/Spreadsheet_Data/Dungeon.xlsx
+++ b/data/Spreadsheet_Data/Dungeon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data/Spreadsheet_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF9DE98-7C67-7949-893D-9985B216EA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447175D0-5F51-B94C-AF60-C813860AC2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17880" yWindow="7020" windowWidth="27700" windowHeight="16940" xr2:uid="{7AF20345-843F-AC45-893A-6EE522003F38}"/>
+    <workbookView xWindow="45280" yWindow="4020" windowWidth="27700" windowHeight="16940" xr2:uid="{7AF20345-843F-AC45-893A-6EE522003F38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>D_006</t>
+  </si>
+  <si>
+    <t>File Name</t>
+  </si>
+  <si>
+    <t>Directory</t>
   </si>
 </sst>
 </file>
@@ -129,9 +135,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -169,7 +175,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -275,7 +281,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -417,7 +423,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -425,48 +431,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6FB6206-37FC-FD4C-9084-4956887C5DB1}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>

--- a/data/Spreadsheet_Data/Dungeon.xlsx
+++ b/data/Spreadsheet_Data/Dungeon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447175D0-5F51-B94C-AF60-C813860AC2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9F795B-302E-1047-94E4-846716F72145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45280" yWindow="4020" windowWidth="27700" windowHeight="16940" xr2:uid="{7AF20345-843F-AC45-893A-6EE522003F38}"/>
+    <workbookView xWindow="18220" yWindow="4180" windowWidth="27700" windowHeight="16940" xr2:uid="{7AF20345-843F-AC45-893A-6EE522003F38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ID</t>
   </si>
@@ -46,25 +46,19 @@
     <t>D_001</t>
   </si>
   <si>
-    <t>D_002</t>
-  </si>
-  <si>
-    <t>D_003</t>
-  </si>
-  <si>
-    <t>D_004</t>
-  </si>
-  <si>
-    <t>D_005</t>
-  </si>
-  <si>
-    <t>D_006</t>
-  </si>
-  <si>
     <t>File Name</t>
   </si>
   <si>
     <t>Directory</t>
+  </si>
+  <si>
+    <t>data/Multimedia_Data/Dungeon</t>
+  </si>
+  <si>
+    <t>Spreadsheet_Data</t>
+  </si>
+  <si>
+    <t>Archive from Project daschland-scripts spreadsheets</t>
   </si>
 </sst>
 </file>
@@ -431,13 +425,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6FB6206-37FC-FD4C-9084-4956887C5DB1}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -447,40 +446,24 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/Spreadsheet_Data/Dungeon.xlsx
+++ b/data/Spreadsheet_Data/Dungeon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9F795B-302E-1047-94E4-846716F72145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44324461-0D06-7440-831B-5111F26EB515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18220" yWindow="4180" windowWidth="27700" windowHeight="16940" xr2:uid="{7AF20345-843F-AC45-893A-6EE522003F38}"/>
   </bookViews>
@@ -52,13 +52,13 @@
     <t>Directory</t>
   </si>
   <si>
-    <t>data/Multimedia_Data/Dungeon</t>
-  </si>
-  <si>
-    <t>Spreadsheet_Data</t>
-  </si>
-  <si>
     <t>Archive from Project daschland-scripts spreadsheets</t>
+  </si>
+  <si>
+    <t>Spreadsheet_Data.zip</t>
+  </si>
+  <si>
+    <t>data/Multimedia_Data/Dungeon/</t>
   </si>
 </sst>
 </file>
@@ -428,7 +428,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -457,13 +457,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
